--- a/APIClient/УП.xlsx
+++ b/APIClient/УП.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subachev Sergey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banking\APIClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Адрес регистрации</t>
   </si>
@@ -42,147 +42,6 @@
   </si>
   <si>
     <t>Екатеринбург, Мира, 22</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>CourtType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>UfkCode</t>
-  </si>
-  <si>
-    <t>UfkName</t>
-  </si>
-  <si>
-    <t>UfkInn</t>
-  </si>
-  <si>
-    <t>UfkKpp</t>
-  </si>
-  <si>
-    <t>UfkKbk</t>
-  </si>
-  <si>
-    <t>UfkOktmo</t>
-  </si>
-  <si>
-    <t>UfkBank</t>
-  </si>
-  <si>
-    <t>UfkBik</t>
-  </si>
-  <si>
-    <t>UfkAccount</t>
-  </si>
-  <si>
-    <t>UfkCorrespondentAccount</t>
-  </si>
-  <si>
-    <t>UfkPhone</t>
-  </si>
-  <si>
-    <t>UfkWebsite</t>
-  </si>
-  <si>
-    <t>UfkAddress</t>
-  </si>
-  <si>
-    <t>FsspName</t>
-  </si>
-  <si>
-    <t>FsspAddress</t>
-  </si>
-  <si>
-    <t>FsspPhone</t>
-  </si>
-  <si>
-    <t>66MS0020</t>
-  </si>
-  <si>
-    <t>Мировой суд</t>
-  </si>
-  <si>
-    <t>Мировому судье судебного участка № 3 судебного района, в котором создан Кировский районный суд г. Екатеринбурга Свердловской области</t>
-  </si>
-  <si>
-    <t>620075, Свердловская область, г. Екатеринбург, р-н. Кировский, ул. Кузнечная, д. 72</t>
-  </si>
-  <si>
-    <t>Один номер на с/у: 8(343) 388-07-47</t>
-  </si>
-  <si>
-    <t>3kir@dms66.ru</t>
-  </si>
-  <si>
-    <t>http://3kir.svd.msudrf.ru</t>
-  </si>
-  <si>
-    <t>Управление федерального казначейства по Свердловской области  (ИФНС России по Кировскому р-ну г.Екатеринбурга)</t>
-  </si>
-  <si>
-    <t>УРАЛЬСКОЕ ГУ БАНКА РОССИИ//УФК по Свердловской области г. Екатеринбург</t>
-  </si>
-  <si>
-    <t>+7 (343) 362-93-01</t>
-  </si>
-  <si>
-    <t>https://www.nalog.ru/rn66/ifns/imns6670/</t>
-  </si>
-  <si>
-    <t>620062, Свердловская область, Кировский р-н, г. Екатеринбург, ул. Тимирязева, д. 11</t>
-  </si>
-  <si>
-    <t>66MS0027</t>
-  </si>
-  <si>
-    <t>Мировому судье судебного участка № 10 судебного района, в котором создан Кировский районный суд г. Екатеринбурга Свердловской области</t>
-  </si>
-  <si>
-    <t>620049, Свердловская область, Кировский р-н, г. Екатеринбург, ул. Первомайская, д. 112</t>
-  </si>
-  <si>
-    <t>Один номер на с/у: 8(343) 378-87-56</t>
-  </si>
-  <si>
-    <t>10kir@dms66.ru</t>
-  </si>
-  <si>
-    <t>http://10kir.svd.msudrf.ru</t>
-  </si>
-  <si>
-    <t>66MS0021</t>
-  </si>
-  <si>
-    <t>Мировому судье судебного участка № 4 судебного района, в котором создан Кировский районный суд г. Екатеринбурга Свердловской области</t>
-  </si>
-  <si>
-    <t>620049, Свердловская область, г. Екатеринбург, р-н. Кировский, ул. Первомайская, д. 112</t>
-  </si>
-  <si>
-    <t>Один номер на с/у:8(343) 378-87-56</t>
-  </si>
-  <si>
-    <t>4kir@dms66.ru</t>
-  </si>
-  <si>
-    <t>http://4kir.svd.msudrf.ru</t>
   </si>
 </sst>
 </file>
@@ -615,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,291 +485,42 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1">
-        <v>6670</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="1">
-        <v>6660010006</v>
-      </c>
-      <c r="M2" s="1">
-        <v>667001001</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1.8210803010011001E+19</v>
-      </c>
-      <c r="O2" s="1">
-        <v>65701000</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>16577551</v>
-      </c>
-      <c r="R2" s="1">
-        <v>3.1006430000000102E+18</v>
-      </c>
-      <c r="S2" s="1">
-        <v>4.0102810645370003E+19</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="1">
-        <v>6670</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1">
-        <v>6660010006</v>
-      </c>
-      <c r="M3" s="1">
-        <v>667001001</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1.8210803010011001E+19</v>
-      </c>
-      <c r="O3" s="1">
-        <v>65701000</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>16577551</v>
-      </c>
-      <c r="R3" s="1">
-        <v>3.1006430000000102E+18</v>
-      </c>
-      <c r="S3" s="1">
-        <v>4.0102810645370003E+19</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6670</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1">
-        <v>6660010006</v>
-      </c>
-      <c r="M5" s="1">
-        <v>667001001</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.8210803010011001E+19</v>
-      </c>
-      <c r="O5" s="1">
-        <v>65701000</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>16577551</v>
-      </c>
-      <c r="R5" s="1">
-        <v>3.1006430000000102E+18</v>
-      </c>
-      <c r="S5" s="1">
-        <v>4.0102810645370003E+19</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
